--- a/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos tranquilizantes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A05-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.573288459170319</v>
+        <v>1.83376592639591</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.456690678362315</v>
+        <v>3.425868103659893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.937023322098125</v>
+        <v>4.868135280284898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.31307484683261</v>
+        <v>6.06624355576488</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2799013852208947</v>
+        <v>0.335331216612954</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5081097669907897</v>
+        <v>0.4938421623072306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7577565473569926</v>
+        <v>0.7796575532398167</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.6126289999971183</v>
+        <v>0.5688493267209933</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.57213912498528</v>
+        <v>5.735232345819964</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.917067549646386</v>
+        <v>7.981892529355915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.75431133228949</v>
+        <v>10.39252176224394</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.01030239161344</v>
+        <v>12.10453539267675</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.601558157463701</v>
+        <v>1.689933789897041</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.958134775871878</v>
+        <v>1.913214713387372</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.883807522974832</v>
+        <v>2.701587896355174</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.766559351612298</v>
+        <v>1.796668367504995</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.400035779550196</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.821038882773451</v>
+        <v>2.82103888277345</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.611326135743075</v>
@@ -749,7 +749,7 @@
         <v>1.084351863272488</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.7263337610377788</v>
+        <v>0.7263337610377785</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.184624250401</v>
+        <v>1.22321616997071</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.418860177393292</v>
+        <v>1.401825532125979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.132424577017477</v>
+        <v>2.028951399038966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.564469323920287</v>
+        <v>1.615527889394074</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6055180398955157</v>
+        <v>0.6277886407515448</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4019795636631152</v>
+        <v>0.4529491352314195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5738044144716994</v>
+        <v>0.5576452881484677</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3336456481778657</v>
+        <v>0.3311464644714292</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.432860568793738</v>
+        <v>3.373616676672305</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.120736061773892</v>
+        <v>4.052520758287468</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.882368754029954</v>
+        <v>4.740963694136998</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.014965569990514</v>
+        <v>4.005462032190043</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.465814805412089</v>
+        <v>3.366789147881955</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.957081553480206</v>
+        <v>2.045446780836063</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.876606340455383</v>
+        <v>1.907518169282384</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.237223975477773</v>
+        <v>1.183105053884655</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.3032358735665757</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.040201432780224</v>
+        <v>1.040201432780226</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1454119121649859</v>
@@ -849,7 +849,7 @@
         <v>-0.1106651052398304</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4638795633902925</v>
+        <v>0.4638795633902931</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.800124501803239</v>
+        <v>-1.625977978834004</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.301785712896828</v>
+        <v>-2.209122224071627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.246088423777149</v>
+        <v>-2.258193882975878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5874906459137854</v>
+        <v>-0.3741115384938746</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.520396401670709</v>
+        <v>-0.5424505803856086</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5092870542100904</v>
+        <v>-0.4889885478243103</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6187954297852355</v>
+        <v>-0.6390744870292127</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2242324134101699</v>
+        <v>-0.1550586003694265</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.354446050494127</v>
+        <v>2.493989042418356</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.982390564076323</v>
+        <v>2.95523220472325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.539848041021559</v>
+        <v>1.677834713789123</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.456551281669999</v>
+        <v>2.540561803226316</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.555200155846378</v>
+        <v>1.833283452707548</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.740022094194839</v>
+        <v>1.570737650558951</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8486005984672855</v>
+        <v>0.8801511515640951</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.583676197280347</v>
+        <v>1.732563728908334</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>1.18240281147665</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.9684037159897592</v>
+        <v>0.9684037159897595</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.807313727424075</v>
+        <v>1.721029970504768</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.779876929534303</v>
+        <v>2.717029830766036</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.931748837049629</v>
+        <v>2.995653355889839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.16802589330946</v>
+        <v>3.23363488576912</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.577277641997617</v>
+        <v>0.5739642525917306</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7265930852173274</v>
+        <v>0.6919456753507557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.730621202641094</v>
+        <v>0.7435079617948012</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6498357025005947</v>
+        <v>0.6493463761818389</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.700278503334968</v>
+        <v>3.664700605021114</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.873769327216192</v>
+        <v>4.808630320771246</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.272305172523422</v>
+        <v>5.419363096381669</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.210599365661507</v>
+        <v>5.075944435090516</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.647338348732777</v>
+        <v>1.662175201712726</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.698654798076191</v>
+        <v>1.722524244203957</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.722584092062532</v>
+        <v>1.740811255966974</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.36754559560246</v>
+        <v>1.338654698082646</v>
       </c>
     </row>
     <row r="16">
